--- a/FYP_GanttChart_Draft.xlsx
+++ b/FYP_GanttChart_Draft.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casslynnkoh/Desktop/FYP/SVN/trunk/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="50" windowWidth="13380" windowHeight="4340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +164,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,22 +199,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -202,7 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -352,46 +385,46 @@
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43115</c:v>
+                  <c:v>43120.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43115</c:v>
+                  <c:v>43120.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43115</c:v>
+                  <c:v>43120.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43115</c:v>
+                  <c:v>43120.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43129</c:v>
+                  <c:v>43129.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,43 +508,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,43 +572,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>113</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,24 +624,25 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="238396928"/>
-        <c:axId val="238398464"/>
+        <c:axId val="-1961576096"/>
+        <c:axId val="-1961573776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="238396928"/>
+        <c:axId val="-1961576096"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="238398464"/>
+        <c:crossAx val="-1961573776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -616,11 +650,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238398464"/>
+        <c:axId val="-1961573776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43239"/>
-          <c:min val="43115"/>
+          <c:max val="43239.0"/>
+          <c:min val="43115.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -629,11 +663,11 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238396928"/>
+        <c:crossAx val="-1961576096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="10"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="10.0"/>
       </c:valAx>
       <c:spPr>
         <a:effectLst>
@@ -767,12 +801,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -802,12 +836,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1013,21 +1047,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1048,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1074,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1100,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1126,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1152,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -1264,10 +1298,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="5">
-        <v>43115</v>
+        <v>43120</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
@@ -1279,10 +1313,10 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -1290,10 +1324,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="5">
-        <v>43115</v>
+        <v>43120</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
@@ -1305,10 +1339,10 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -1316,10 +1350,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="5">
-        <v>43115</v>
+        <v>43120</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
@@ -1331,10 +1365,10 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
@@ -1342,10 +1376,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="5">
-        <v>43115</v>
+        <v>43120</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
@@ -1357,10 +1391,10 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -1386,7 +1420,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -1399,7 +1433,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>4</v>
       </c>
@@ -1412,7 +1446,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>5</v>
       </c>
@@ -1425,10 +1459,10 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
@@ -1445,7 +1479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1457,7 +1491,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
